--- a/storage/app/repository/NIS2.fr.xlsx
+++ b/storage/app/repository/NIS2.fr.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t xml:space="preserve">Framework</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">NIS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesures de gestion des risques en matière de cybersécurité</t>
   </si>
   <si>
     <t xml:space="preserve">NIS2-21.2.a</t>
@@ -294,8 +297,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -390,12 +393,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -445,7 +448,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,7 +504,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -509,34 +512,34 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -544,34 +547,34 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -579,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,34 +652,34 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -684,34 +687,34 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -719,34 +722,34 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -754,34 +757,34 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -789,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
